--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -52,40 +52,61 @@
     <t xml:space="preserve">Frontend, Backend, Contract</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create NFT</t>
   </si>
   <si>
     <t xml:space="preserve">- create/mint NFT item</t>
   </si>
   <si>
+    <t xml:space="preserve">Collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- create "Collections" and "My Collections" pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend, Backend, Moralis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- create "Collection Detail" page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- create NFT Detail page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend, Backend, Contract, Moralis</t>
+  </si>
+  <si>
     <t xml:space="preserve">My NFTs</t>
   </si>
   <si>
     <t xml:space="preserve">- set payment token when creating sale or timed auction</t>
   </si>
   <si>
-    <t xml:space="preserve">Frontend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">All Pages</t>
   </si>
   <si>
     <t xml:space="preserve">- display nft and collection name, price, images on all pages</t>
   </si>
   <si>
-    <t xml:space="preserve">Pending</t>
-  </si>
-  <si>
     <t xml:space="preserve">Home</t>
   </si>
   <si>
     <t xml:space="preserve">- all components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Likes NFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend, Backend</t>
   </si>
 </sst>
 </file>
@@ -101,6 +122,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,6 +143,7 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -136,6 +159,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -370,10 +394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:H53"/>
+  <dimension ref="B3:H56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,7 +409,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="71.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -432,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,123 +466,143 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="6" t="n">
         <v>44672</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="n">
+        <v>44673</v>
+      </c>
       <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="n">
-        <v>4</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>44673</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="n">
-        <v>6</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="n">
-        <v>7</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="n">
-        <v>9</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="n">
-        <v>10</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
@@ -567,9 +611,7 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5" t="n">
-        <v>11</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -578,9 +620,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="n">
-        <v>12</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -589,9 +629,7 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="n">
-        <v>13</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -600,9 +638,7 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="n">
-        <v>14</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -611,9 +647,7 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="n">
-        <v>15</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -622,9 +656,7 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5" t="n">
-        <v>16</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -633,9 +665,7 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5" t="n">
-        <v>17</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -644,9 +674,7 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="5" t="n">
-        <v>18</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
@@ -655,9 +683,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="5" t="n">
-        <v>19</v>
-      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
@@ -666,9 +692,7 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="5" t="n">
-        <v>20</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -677,9 +701,7 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="5" t="n">
-        <v>21</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -688,9 +710,7 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5" t="n">
-        <v>22</v>
-      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -699,9 +719,7 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5" t="n">
-        <v>23</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -710,9 +728,7 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5" t="n">
-        <v>24</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
@@ -721,9 +737,7 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5" t="n">
-        <v>25</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -732,9 +746,7 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="n">
-        <v>26</v>
-      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -743,9 +755,7 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5" t="n">
-        <v>27</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -754,9 +764,7 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5" t="n">
-        <v>28</v>
-      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -765,9 +773,7 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="5" t="n">
-        <v>29</v>
-      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -776,9 +782,7 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="5" t="n">
-        <v>30</v>
-      </c>
+      <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -787,9 +791,7 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="5" t="n">
-        <v>31</v>
-      </c>
+      <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -798,9 +800,7 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="5" t="n">
-        <v>32</v>
-      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -809,9 +809,7 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="5" t="n">
-        <v>33</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -820,9 +818,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5" t="n">
-        <v>34</v>
-      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
@@ -831,9 +827,7 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="5" t="n">
-        <v>35</v>
-      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -842,9 +836,7 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="5" t="n">
-        <v>36</v>
-      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -853,9 +845,7 @@
       <c r="H39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="5" t="n">
-        <v>37</v>
-      </c>
+      <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -864,9 +854,7 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="5" t="n">
-        <v>38</v>
-      </c>
+      <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -875,9 +863,7 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="5" t="n">
-        <v>39</v>
-      </c>
+      <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -886,9 +872,7 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="5" t="n">
-        <v>40</v>
-      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -897,9 +881,7 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="5" t="n">
-        <v>41</v>
-      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
@@ -908,9 +890,7 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="5" t="n">
-        <v>42</v>
-      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -919,9 +899,7 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="5" t="n">
-        <v>43</v>
-      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -930,9 +908,7 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="5" t="n">
-        <v>44</v>
-      </c>
+      <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -941,9 +917,7 @@
       <c r="H47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="5" t="n">
-        <v>45</v>
-      </c>
+      <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -952,9 +926,7 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="5" t="n">
-        <v>46</v>
-      </c>
+      <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
@@ -963,9 +935,7 @@
       <c r="H49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="5" t="n">
-        <v>47</v>
-      </c>
+      <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
@@ -974,9 +944,7 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="5" t="n">
-        <v>48</v>
-      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
@@ -985,9 +953,7 @@
       <c r="H51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="5" t="n">
-        <v>49</v>
-      </c>
+      <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -996,9 +962,7 @@
       <c r="H52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="5" t="n">
-        <v>50</v>
-      </c>
+      <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -1006,33 +970,60 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D4 G4:H4 B5:H53">
+  <conditionalFormatting sqref="B4:H56">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$H4="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:D4 G4:H4 B5:H53">
+  <conditionalFormatting sqref="B4:H56">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$H4="Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:D4 G4:H4 B5:H53">
+  <conditionalFormatting sqref="B4:H56">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$H4="Testing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:H53">
+  <conditionalFormatting sqref="B4:H56">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$H4="In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E53" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E56" type="list">
       <formula1>"All Pages,Home,My NFTs,Items on sale,Live Auctions,Collections,Item Detail,Create Collection,Create NFT,Activity,Profile,News,Contact Us,Help Center"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H4:H53" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H4:H56" type="list">
       <formula1>"Pending,In Progress,Testing,Completed,Cancelled"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">- create/mint NFT item</t>
   </si>
   <si>
-    <t xml:space="preserve">Collections</t>
+    <t xml:space="preserve">All Pages</t>
   </si>
   <si>
     <t xml:space="preserve">- create "Collections" and "My Collections" pages</t>
@@ -67,46 +67,58 @@
     <t xml:space="preserve">Frontend, Backend, Moralis</t>
   </si>
   <si>
-    <t xml:space="preserve">In Progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">- create "Collection Detail" page</t>
   </si>
   <si>
+    <t xml:space="preserve">- create NFT Detail page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend, Backend, Contract, Moralis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- set payment token when creating sale or timed auction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- display nft and collection name, price, images on all pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- homepage items image gallery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pending</t>
   </si>
   <si>
     <t xml:space="preserve">Item Detail</t>
   </si>
   <si>
-    <t xml:space="preserve">- create NFT Detail page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontend, Backend, Contract, Moralis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My NFTs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- set payment token when creating sale or timed auction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- display nft and collection name, price, images on all pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- all components</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Likes NFT</t>
+    <t xml:space="preserve">- api issues not showing correct bids sometimes</t>
   </si>
   <si>
     <t xml:space="preserve">Frontend, Backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- auction need to show cancel auction for creators and place a bid for others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- history needs to be added too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- collections in item details (not able to click) - we need to see collections set for users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- we need to be allowed to see other user profile and collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- like NFTs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- following user</t>
   </si>
 </sst>
 </file>
@@ -397,19 +409,19 @@
   <dimension ref="B3:H56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="71.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="85.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -496,7 +508,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,16 +516,16 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,16 +533,16 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,16 +550,16 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,16 +567,16 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,16 +584,16 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,24 +601,28 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
@@ -614,8 +630,12 @@
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
@@ -623,8 +643,12 @@
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
@@ -632,8 +656,12 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
@@ -641,8 +669,12 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
@@ -650,8 +682,12 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
@@ -1018,13 +1054,17 @@
       <formula>$H4="In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E56" type="list">
-      <formula1>"All Pages,Home,My NFTs,Items on sale,Live Auctions,Collections,Item Detail,Create Collection,Create NFT,Activity,Profile,News,Contact Us,Help Center"</formula1>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H4:H56" type="list">
+      <formula1>"Pending,In Progress,Testing,Completed,Cancelled"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H4:H56" type="list">
-      <formula1>"Pending,In Progress,Testing,Completed,Cancelled"</formula1>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E56" type="list">
+      <formula1>"All Pages,Home,My NFTs,Items on sale,Live Auctions,Collections,Item Detail,Create Collection,Create NFT,Author,Header,Collection Detail,My Collection,Activity,Profile,News,About Us,Contact Us,FAQ,Help Center"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4" type="list">
+      <formula1>"All Pages,Home,My NFTs,Items on sale,Live Auctions,Collections,Item Detail,Create Collection,Create Item/NFT,Author,Header,Footer,Collection Detail,My Collections,Activity,Profile,News,About Us,Contact Us,FAQ"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
